--- a/biology/Botanique/Friesodielsia/Friesodielsia.xlsx
+++ b/biology/Botanique/Friesodielsia/Friesodielsia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friesodielsia est un genre de plantes appartenant à la famille des Annonaceae. 
 </t>
@@ -511,14 +523,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017) :
 Friesodielsia desmoides (Craib) Steenis
 Friesodielsia hainanensis Tsiang &amp; P. T. Li
 Friesodielsia obovata (Benth.) Verdcourt
 Friesodielsia sahyadrica N.V.Page &amp; S.Surveswaran
-Selon Catalogue of Life                                   (24 juillet 2017)[3] :
+Selon Catalogue of Life                                   (24 juillet 2017) :
 Friesodielsia acuminata (Merr.) Steenis
 Friesodielsia affinis (Hook. f. &amp; Thomson) D. Das
 Friesodielsia alpina (J. Sinclair) Steenis
@@ -568,16 +582,16 @@
 Friesodielsia stenopetala (Hook. f. &amp;Thomson) D. Das
 Friesodielsia unonaefolia (A. DC.) Steenis
 Friesodielsia velutina (Sprague &amp; Hutch.) Steenis
-Selon ITIS      (24 juillet 2017)[4] :
+Selon ITIS      (24 juillet 2017) :
 Friesodielsia obovata (Benth.) Verdc.
-Selon NCBI  (24 juillet 2017)[5] :
+Selon NCBI  (24 juillet 2017) :
 Friesodielsia biglandulosa
 Friesodielsia cuneiformis
 Friesodielsia desmoides
 Friesodielsia enghiana
 Friesodielsia obovata
 Friesodielsia sahyadrica
-Selon The Plant List            (24 juillet 2017)[6] :
+Selon The Plant List            (24 juillet 2017) :
 Friesodielsia acuminata (Merr.) Steenis
 Friesodielsia affinis (Hook.f. &amp; Thomson) D.Das
 Friesodielsia alpina (J.Sinclair) Steenis
@@ -625,7 +639,7 @@
 Friesodielsia stenopetala (Hook.f. &amp; Thomson) D.Das
 Friesodielsia unonifolia (A.DC.) Steenis
 Friesodielsia velutina (Sprague &amp; Hutch.) Steenis
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Friesodielsia acuminata Steenis
 Friesodielsia affinis D. Das
 Friesodielsia albida Steenis
